--- a/Exported_Case_Arrival.xlsx
+++ b/Exported_Case_Arrival.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125DDEE5-5EC5-49DC-A251-A26895DE86C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7DBE6-0FE2-4DC7-B00D-30EC78E6C80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,9 +304,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="171" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -451,22 +451,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,11 +469,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -491,7 +485,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +494,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -507,28 +507,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -759,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -775,47 +754,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="8"/>
@@ -841,871 +820,871 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="1:28" ht="14.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>43849</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>43849</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>43850</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f t="shared" ref="E4:E10" si="0">C4-B4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:28" ht="14.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>43852</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>43852</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>43852</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:28" s="26" customFormat="1" ht="14.25">
-      <c r="A6" s="27" t="s">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" s="24" customFormat="1" ht="14.25">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>43850</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>43850</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>43856</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:28" ht="14.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>43850</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>43851</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>43856</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:28" ht="14.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>43850</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>43850</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>43856</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:28" ht="14.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>43836</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>43833</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>43845</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:28" ht="14.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>43849</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>43849</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>43854</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:28" ht="14.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>43848</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
         <v>43855</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:28" ht="14.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <v>43851</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>43852</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>43858</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f t="shared" ref="E12:E13" si="1">C12-B12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:28" ht="14.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <v>43852</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>43853</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>43860</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:28" ht="14.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="16">
         <v>43843</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16">
         <v>43860</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:28" ht="14.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>43851</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>43853</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>43854</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <f t="shared" ref="E15:E21" si="2">C15-B15</f>
         <v>2</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:28" ht="14.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>43855</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>43852</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>43856</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>43850</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>43856</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>43858</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f t="shared" ref="E17" si="3">C17-B17</f>
         <v>6</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="16">
         <v>43850</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>43855</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>43857</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>43852</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>43855</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>43858</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <f t="shared" ref="E19" si="4">C19-B19</f>
         <v>3</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <v>43852</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>43855</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>43858</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>43842</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>43851</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>43860</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <v>43852</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20">
+      <c r="C22" s="16"/>
+      <c r="D22" s="18">
         <v>43855</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="18">
         <v>43852</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>43852</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>43853</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <f>C23-B23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="18">
         <v>43845</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>43849</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17">
         <f t="shared" ref="E25:E26" si="5">C25-B25</f>
         <v>4</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>43853</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>43854</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>43849</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>43851</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>43843</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>43847</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17">
         <f t="shared" ref="E29:E31" si="6">C29-B29</f>
         <v>4</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>43850</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <v>43851</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>43852</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>43853</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <v>43839</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>43850</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>43851</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
         <f>C33-B33</f>
         <v>1</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="16">
         <v>43836</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <v>43838</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>43835</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
         <f>C35-B35</f>
         <v>-3</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="16">
         <v>43853</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="16">
         <v>43853</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>43856</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19">
+      <c r="D37" s="16"/>
+      <c r="E37" s="17">
         <f>C37-B37</f>
         <v>3</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="16">
         <v>43846</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>43853</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <v>43853</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>43855</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="16">
         <v>43839</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17">
         <v>4</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="16">
         <v>43849</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="16">
         <v>43855</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19">
+      <c r="D41" s="16"/>
+      <c r="E41" s="17">
         <f t="shared" ref="E41:E42" si="7">C41-B41</f>
         <v>6</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="16">
         <v>43853</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="16">
         <v>43859</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19">
+      <c r="D42" s="16"/>
+      <c r="E42" s="17">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="16">
         <v>43843</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="16">
         <v>43843</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="16">
         <v>43859</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="16">
         <v>43860</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="16">
         <v>43854</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22">
         <v>43805</v>
       </c>
-      <c r="G48" s="22"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:5" ht="12.75">
       <c r="A49" s="1"/>

--- a/Exported_Case_Arrival.xlsx
+++ b/Exported_Case_Arrival.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7DBE6-0FE2-4DC7-B00D-30EC78E6C80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BD92A-0449-4934-94A4-0E14B53364C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>Country</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>Arrival date to date of symptom onset</t>
+  </si>
+  <si>
+    <t>https://www.who.int/csr/don/21-january-2020-novel-coronavirus-republic-of-korea-ex-china/en/,http://www.chinacdc.cn/en/,https://shimo.im/sheets/tyWrrrqppYVwQtCW/oURp4/?from=singlemessage&amp;isappinstalled=0</t>
+  </si>
+  <si>
+    <t>https://www.cdc.go.kr/cdc_eng/,http://www.chinacdc.cn/en/,https://shimo.im/sheets/tyWrrrqppYVwQtCW/oURp4/?from=singlemessage&amp;isappinstalled=0</t>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/english/,http://www.chinacdc.cn/en/,https://shimo.im/sheets/tyWrrrqppYVwQtCW/oURp4/?from=singlemessage&amp;isappinstalled=0</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov.tw/En,http://www.chinacdc.cn/en/,https://shimo.im/sheets/tyWrrrqppYVwQtCW/oURp4/?from=singlemessage&amp;isappinstalled=0</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
     <numFmt numFmtId="166" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -385,16 +397,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambira"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambira"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -446,7 +448,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,8 +482,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -500,6 +500,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -507,7 +508,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -738,11 +753,11 @@
   </sheetPr>
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -753,29 +768,29 @@
     <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -788,7 +803,7 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>79</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -819,7 +834,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:28" ht="14.25">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -839,9 +854,11 @@
       <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.25">
+      <c r="G4" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -861,30 +878,34 @@
       <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" s="24" customFormat="1" ht="14.25">
-      <c r="A6" s="25" t="s">
+      <c r="G5" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>43850</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>43850</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>43856</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>0</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="14.25">
+      <c r="G6" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -904,9 +925,11 @@
       <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" ht="14.25">
+      <c r="G7" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -926,9 +949,11 @@
       <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" ht="14.25">
+      <c r="G8" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -948,9 +973,11 @@
       <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" ht="14.25">
+      <c r="G9" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -970,9 +997,11 @@
       <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" ht="14.25">
+      <c r="G10" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -987,9 +1016,11 @@
       <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" ht="14.25">
+      <c r="G11" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1009,9 +1040,11 @@
       <c r="F12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.25">
+      <c r="G12" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -1031,9 +1064,11 @@
       <c r="F13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" ht="14.25">
+      <c r="G13" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1048,9 +1083,11 @@
       <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.25">
+      <c r="G14" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
@@ -1070,9 +1107,11 @@
       <c r="F15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" ht="14.25">
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
@@ -1092,9 +1131,11 @@
       <c r="F16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25">
+      <c r="G16" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
@@ -1114,9 +1155,11 @@
       <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25">
+      <c r="G17" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
@@ -1136,9 +1179,11 @@
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25">
+      <c r="G18" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
@@ -1158,9 +1203,11 @@
       <c r="F19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25">
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
@@ -1180,9 +1227,11 @@
       <c r="F20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25">
+      <c r="G20" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
@@ -1202,9 +1251,11 @@
       <c r="F21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G21" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1488,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25">
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25">
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25">
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
@@ -1560,7 +1611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25">
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
@@ -1580,7 +1631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25">
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +1651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25">
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25">
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>53</v>
       </c>
@@ -1630,7 +1681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25">
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>56</v>
       </c>
@@ -1660,7 +1711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25">
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -1686,141 +1737,141 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:5" ht="12.75">
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="12.75">
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="12.75">
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="12.75">
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="12.75">
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="12.75">
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="12.75">
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="12.75">
+    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="12.75">
+    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="12.75">
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="12.75">
+    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="C59" s="6"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="12.75">
+    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="C60" s="4"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="12.75">
+    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="12.75">
+    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="12.75">
+    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="12.75">
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="12.75">
+    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="12.75">
+    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="12.75">
+    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="12.75">
+    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="C68" s="4"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="12.75">
+    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1833,12 +1884,12 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G5 A7:G47 G6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$E4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A6:G6">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E6&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1862,9 +1913,27 @@
     <hyperlink ref="G45" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
     <hyperlink ref="G46" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
     <hyperlink ref="G47" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="G4" r:id="rId20" xr:uid="{34A0EC33-430D-4FA2-B9FB-D1768AD7670C}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{2C6BAB03-E1BF-4AFA-A9C7-0C9268462E03}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{C297B8A6-62EC-4310-BD16-3AD9D88D6D91}"/>
+    <hyperlink ref="G7" r:id="rId23" xr:uid="{B7CFF5B1-747B-4D8F-8A4E-27FAD491CA71}"/>
+    <hyperlink ref="G8" r:id="rId24" xr:uid="{21A81E3B-1679-4D41-9BBA-2514BDC8B573}"/>
+    <hyperlink ref="G9" r:id="rId25" xr:uid="{7FA7C1E1-CB57-4336-8AE7-04201C8FB93C}"/>
+    <hyperlink ref="G10" r:id="rId26" xr:uid="{A0D8099E-DE51-439C-A6ED-6CFE3F41EC55}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{246EC24B-2C42-430B-81A8-E6F0ADF0AB18}"/>
+    <hyperlink ref="G12" r:id="rId28" xr:uid="{F0E6499A-A868-459D-9DC5-BF100F69E320}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{BF605D6B-62DB-4714-8662-31A4BC36F584}"/>
+    <hyperlink ref="G14" r:id="rId30" xr:uid="{52795501-CE15-4A71-A642-26254691F8D2}"/>
+    <hyperlink ref="G15" r:id="rId31" xr:uid="{A981857D-D908-4138-89D3-1B3F633CDD08}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{1D8F2035-4100-4256-B27F-8AD2398EC5A1}"/>
+    <hyperlink ref="G17" r:id="rId33" xr:uid="{2B61AEB0-4D83-4D84-ADBD-B68C6F6F00AE}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{04E44B05-BA8C-45AC-8C4E-630FE884449E}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{F2AD0A6E-4882-40E7-A3EE-1A1C6616A729}"/>
+    <hyperlink ref="G20" r:id="rId36" xr:uid="{12007DD4-8BF2-4986-8C54-C05C9B9EF1FC}"/>
+    <hyperlink ref="G21" r:id="rId37" xr:uid="{24F71A93-EBCD-47DC-81FC-FE1C5F51C55A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/Exported_Case_Arrival.xlsx
+++ b/Exported_Case_Arrival.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BD92A-0449-4934-94A4-0E14B53364C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77799E15-FE24-4A9B-BADA-BCCF08E43BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exported Cases" sheetId="6" r:id="rId1"/>
+    <sheet name="First_Arrival" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -32,31 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>said arrived in recent days. assumed day prior to confirmation
-	-Chad Wells</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>Country</t>
   </si>
@@ -169,12 +147,6 @@
     <t>https://www.sbs.com.au/news/calm-urged-as-china-s-coronavirus-reaches-australia-with-four-confirmed-cases</t>
   </si>
   <si>
-    <t>Unwell shortly after the flight (assume this is first case)</t>
-  </si>
-  <si>
-    <t>https://www.abc.net.au/news/2020-01-25/first-confirmed-coronavirus-case-australian-as-china-toll-rises/11900428</t>
-  </si>
-  <si>
     <t>https://www.who.int/csr/don/14-january-2020-novel-coronavirus-thailand-ex-china/en/</t>
   </si>
   <si>
@@ -308,6 +280,60 @@
   </si>
   <si>
     <t>https://www.cdc.gov.tw/En,http://www.chinacdc.cn/en/,https://shimo.im/sheets/tyWrrrqppYVwQtCW/oURp4/?from=singlemessage&amp;isappinstalled=0</t>
+  </si>
+  <si>
+    <t>Arrival date of first case</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>This case was supposabley infected in Singapore (not used in the importation analysis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 year old woman from Wuhan travelled with five family memembers in a tour group of 16. </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Woman in 20's had visited Wuhan. Reported had no symptoms. No duration between arrival and symptom onset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese woman in her 40's </t>
+  </si>
+  <si>
+    <t>32 year old student arrived from Wuhan, came to hosptial 4 days later with fever, cough and shortness of breath. No indication of status on arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband (67) and wife (66) arrived in Italy. No indication about when symptoms arose </t>
+  </si>
+  <si>
+    <t>Student from Wuhan University in China (Report indicates posibly one of thos 173 that returned on Wed. Jan 29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived in Ujjain on January 13 from Hubei province. Was kept in quaratine then moved to isolation. </t>
+  </si>
+  <si>
+    <t>32 yr old woamn from Wuhan. Flew  to Helsinki Airport and took a connecting flight to Ivalo Airport in Inari (potentially exposed 15 people)</t>
+  </si>
+  <si>
+    <t>Student at Western University. Self-quaratined and exhibited mild symptoms and weakly positive</t>
+  </si>
+  <si>
+    <t>60-year-old Chinese male</t>
+  </si>
+  <si>
+    <t>https://www.sbs.com.au/news/calm-urged-as-china-s-coronavirus-reaches-australia-with-four-confirmed-cases, https://www.abc.net.au/news/2020-01-25/first-confirmed-coronavirus-case-australian-as-china-toll-rises/11900428</t>
+  </si>
+  <si>
+    <t>Unwell shortly after the flight</t>
+  </si>
+  <si>
+    <t>Reports indicate that the individual arrive a few days prior to symptoms. We conservatiely assumed one day prior to confirmation.</t>
   </si>
 </sst>
 </file>
@@ -320,7 +346,7 @@
     <numFmt numFmtId="166" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -397,6 +423,19 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -448,7 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,13 +533,21 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -508,7 +555,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -747,14 +801,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -769,22 +824,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -804,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -836,217 +891,184 @@
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" s="16">
-        <v>43849</v>
-      </c>
-      <c r="C4" s="16">
-        <v>43849</v>
-      </c>
-      <c r="D4" s="16">
-        <v>43850</v>
-      </c>
-      <c r="E4" s="17">
-        <f t="shared" ref="E4:E10" si="0">C4-B4</f>
-        <v>0</v>
-      </c>
+        <v>43836</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" s="16">
-        <v>43852</v>
-      </c>
-      <c r="C5" s="16">
-        <v>43852</v>
-      </c>
-      <c r="D5" s="16">
-        <v>43852</v>
-      </c>
-      <c r="E5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43839</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="24">
-        <v>43850</v>
-      </c>
-      <c r="C6" s="24">
-        <v>43850</v>
-      </c>
-      <c r="D6" s="24">
-        <v>43856</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>81</v>
+      <c r="A6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
+        <v>43849</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43853</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17">
+        <f>C6-B6</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B7" s="16">
-        <v>43850</v>
+        <v>43853</v>
       </c>
       <c r="C7" s="16">
-        <v>43851</v>
-      </c>
-      <c r="D7" s="16">
-        <v>43856</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>43855</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="16">
-        <v>43850</v>
-      </c>
-      <c r="C8" s="16">
-        <v>43850</v>
-      </c>
-      <c r="D8" s="16">
-        <v>43856</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43852</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18">
+        <v>43855</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>43836</v>
-      </c>
-      <c r="C9" s="16">
-        <v>43833</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43852</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43852</v>
       </c>
       <c r="D9" s="16">
-        <v>43845</v>
+        <v>43853</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>C9-B9</f>
+        <v>0</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" s="16">
-        <v>43849</v>
+        <v>43853</v>
       </c>
       <c r="C10" s="16">
-        <v>43849</v>
-      </c>
-      <c r="D10" s="16">
         <v>43854</v>
       </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C10-B10</f>
+        <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="16">
-        <v>43848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="16">
-        <v>43855</v>
-      </c>
-      <c r="E11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
       <c r="F11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="16">
-        <v>43851</v>
+        <v>43853</v>
       </c>
       <c r="C12" s="16">
-        <v>43852</v>
-      </c>
-      <c r="D12" s="16">
-        <v>43858</v>
-      </c>
+        <v>43856</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="17">
-        <f t="shared" ref="E12:E13" si="1">C12-B12</f>
-        <v>1</v>
+        <f>C12-B12</f>
+        <v>3</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="16">
         <v>43852</v>
@@ -1054,366 +1076,352 @@
       <c r="C13" s="16">
         <v>43853</v>
       </c>
-      <c r="D13" s="16">
-        <v>43860</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="17">
-        <f t="shared" si="1"/>
+        <f>C13-B13</f>
         <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="16">
-        <v>43843</v>
+        <v>43849</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16">
-        <v>43860</v>
-      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B15" s="16">
-        <v>43851</v>
-      </c>
-      <c r="C15" s="16">
-        <v>43853</v>
-      </c>
-      <c r="D15" s="16">
-        <v>43854</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" ref="E15:E21" si="2">C15-B15</f>
-        <v>2</v>
-      </c>
+        <v>43843</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16">
-        <v>43855</v>
-      </c>
-      <c r="C16" s="16">
-        <v>43852</v>
-      </c>
-      <c r="D16" s="16">
-        <v>43856</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
+        <v>43859</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="16">
-        <v>43850</v>
-      </c>
-      <c r="C17" s="16">
-        <v>43856</v>
-      </c>
-      <c r="D17" s="16">
-        <v>43858</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17" si="3">C17-B17</f>
-        <v>6</v>
-      </c>
+        <v>43853</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="16">
-        <v>43850</v>
+        <v>43836</v>
       </c>
       <c r="C18" s="16">
-        <v>43855</v>
+        <v>43833</v>
       </c>
       <c r="D18" s="16">
-        <v>43857</v>
+        <v>43845</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>C18-B18</f>
+        <v>-3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>83</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="16">
-        <v>43852</v>
-      </c>
-      <c r="C19" s="16">
-        <v>43855</v>
-      </c>
+        <v>43843</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="16">
-        <v>43858</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" ref="E19" si="4">C19-B19</f>
-        <v>3</v>
-      </c>
+        <v>43860</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="16">
-        <v>43852</v>
-      </c>
-      <c r="C20" s="16">
+        <v>43848</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16">
         <v>43855</v>
       </c>
-      <c r="D20" s="16">
-        <v>43858</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="16">
-        <v>43842</v>
+        <v>43849</v>
       </c>
       <c r="C21" s="16">
-        <v>43851</v>
+        <v>43849</v>
       </c>
       <c r="D21" s="16">
-        <v>43860</v>
+        <v>43854</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>C21-B21</f>
+        <v>0</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="18">
+        <v>7</v>
+      </c>
+      <c r="B22" s="16">
+        <v>43851</v>
+      </c>
+      <c r="C22" s="16">
         <v>43852</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18">
-        <v>43855</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="D22" s="16">
+        <v>43858</v>
+      </c>
+      <c r="E22" s="17">
+        <f>C22-B22</f>
+        <v>1</v>
+      </c>
       <c r="F22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="18">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16">
         <v>43852</v>
       </c>
-      <c r="C23" s="18">
-        <v>43852</v>
+      <c r="C23" s="16">
+        <v>43853</v>
       </c>
       <c r="D23" s="16">
-        <v>43853</v>
+        <v>43860</v>
       </c>
       <c r="E23" s="17">
         <f>C23-B23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="B24" s="16">
+        <v>43853</v>
+      </c>
+      <c r="C24" s="16">
+        <v>43859</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17">
-        <v>1</v>
+        <f>C24-B24</f>
+        <v>6</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="18">
-        <v>43845</v>
-      </c>
-      <c r="C25" s="18">
-        <v>43849</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B25" s="16">
+        <v>43839</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17">
-        <f t="shared" ref="E25:E26" si="5">C25-B25</f>
         <v>4</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="15" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B26" s="16">
-        <v>43853</v>
-      </c>
-      <c r="C26" s="16">
-        <v>43854</v>
-      </c>
+        <v>43851</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" s="16">
-        <v>43849</v>
-      </c>
-      <c r="C27" s="16"/>
+        <v>43850</v>
+      </c>
+      <c r="C27" s="16">
+        <v>43851</v>
+      </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="17">
+        <f>C27-B27</f>
+        <v>1</v>
+      </c>
       <c r="F27" s="15" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B28" s="16">
-        <v>43851</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+        <v>43849</v>
+      </c>
+      <c r="C28" s="16">
+        <v>43849</v>
+      </c>
+      <c r="D28" s="16">
+        <v>43850</v>
+      </c>
       <c r="E28" s="17">
-        <v>4</v>
+        <f>C28-B28</f>
+        <v>0</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="16">
-        <v>43843</v>
-      </c>
-      <c r="C29" s="16">
-        <v>43847</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17">
-        <f t="shared" ref="E29:E31" si="6">C29-B29</f>
-        <v>4</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="19" t="s">
-        <v>69</v>
+      <c r="A29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="24">
+        <v>43850</v>
+      </c>
+      <c r="C29" s="24">
+        <v>43850</v>
+      </c>
+      <c r="D29" s="24">
+        <v>43856</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="16">
         <v>43850</v>
@@ -1421,309 +1429,386 @@
       <c r="C30" s="16">
         <v>43851</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="16">
+        <v>43856</v>
+      </c>
       <c r="E30" s="17">
-        <f t="shared" si="6"/>
+        <f>C30-B30</f>
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="16">
-        <v>43852</v>
+        <v>43850</v>
       </c>
       <c r="C31" s="16">
-        <v>43853</v>
-      </c>
-      <c r="D31" s="16"/>
+        <v>43850</v>
+      </c>
+      <c r="D31" s="16">
+        <v>43856</v>
+      </c>
       <c r="E31" s="17">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>C31-B31</f>
+        <v>0</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B32" s="16">
-        <v>43839</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
-        <v>36</v>
+        <v>43852</v>
+      </c>
+      <c r="C32" s="16">
+        <v>43852</v>
+      </c>
+      <c r="D32" s="16">
+        <v>43852</v>
+      </c>
+      <c r="E32" s="17">
+        <f>C32-B32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B33" s="16">
-        <v>43850</v>
+        <v>43849</v>
       </c>
       <c r="C33" s="16">
-        <v>43851</v>
+        <v>43855</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17">
         <f>C33-B33</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B34" s="16">
-        <v>43836</v>
+        <v>43854</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="15" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="16">
-        <v>43838</v>
+        <v>43842</v>
       </c>
       <c r="C35" s="16">
-        <v>43835</v>
-      </c>
-      <c r="D35" s="16"/>
+        <v>43851</v>
+      </c>
+      <c r="D35" s="16">
+        <v>43860</v>
+      </c>
       <c r="E35" s="17">
         <f>C35-B35</f>
-        <v>-3</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16">
+        <v>43850</v>
+      </c>
+      <c r="C36" s="16">
+        <v>43856</v>
+      </c>
+      <c r="D36" s="16">
+        <v>43858</v>
+      </c>
+      <c r="E36" s="17">
+        <f>C36-B36</f>
         <v>6</v>
       </c>
-      <c r="B36" s="16">
-        <v>43853</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>40</v>
+      <c r="F36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" s="16">
-        <v>43853</v>
+        <v>43850</v>
       </c>
       <c r="C37" s="16">
-        <v>43856</v>
-      </c>
-      <c r="D37" s="16"/>
+        <v>43855</v>
+      </c>
+      <c r="D37" s="16">
+        <v>43857</v>
+      </c>
       <c r="E37" s="17">
         <f>C37-B37</f>
-        <v>3</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B38" s="16">
-        <v>43846</v>
+        <v>43851</v>
       </c>
       <c r="C38" s="16">
         <v>43853</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
-        <v>43</v>
+      <c r="D38" s="16">
+        <v>43854</v>
+      </c>
+      <c r="E38" s="17">
+        <f>C38-B38</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B39" s="16">
-        <v>43853</v>
+        <v>43852</v>
       </c>
       <c r="C39" s="16">
         <v>43855</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
-        <v>45</v>
+      <c r="D39" s="16">
+        <v>43858</v>
+      </c>
+      <c r="E39" s="17">
+        <f>C39-B39</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B40" s="16">
-        <v>43839</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+        <v>43852</v>
+      </c>
+      <c r="C40" s="16">
+        <v>43855</v>
+      </c>
+      <c r="D40" s="16">
+        <v>43858</v>
+      </c>
       <c r="E40" s="17">
-        <v>4</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
-        <v>47</v>
+        <f>C40-B40</f>
+        <v>3</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B41" s="16">
-        <v>43849</v>
+        <v>43855</v>
       </c>
       <c r="C41" s="16">
-        <v>43855</v>
-      </c>
-      <c r="D41" s="16"/>
+        <v>43852</v>
+      </c>
+      <c r="D41" s="16">
+        <v>43856</v>
+      </c>
       <c r="E41" s="17">
-        <f t="shared" ref="E41:E42" si="7">C41-B41</f>
-        <v>6</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15" t="s">
-        <v>49</v>
+        <f>C41-B41</f>
+        <v>-3</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B42" s="16">
-        <v>43853</v>
+        <v>43838</v>
       </c>
       <c r="C42" s="16">
-        <v>43859</v>
+        <v>43835</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="17">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="F42" s="15"/>
+        <f>C42-B42</f>
+        <v>-3</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G42" s="15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B43" s="16">
-        <v>43843</v>
-      </c>
-      <c r="C43" s="16"/>
+        <v>43846</v>
+      </c>
+      <c r="C43" s="16">
+        <v>43853</v>
+      </c>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="16">
-        <v>43843</v>
+        <v>43860</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="G44" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B45" s="16">
-        <v>43859</v>
+        <v>43843</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="17"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="16">
-        <v>43860</v>
-      </c>
-      <c r="C46" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="B46" s="18">
+        <v>43845</v>
+      </c>
+      <c r="C46" s="18">
+        <v>43849</v>
+      </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="17">
+        <f>C46-B46</f>
+        <v>4</v>
+      </c>
       <c r="F46" s="15"/>
       <c r="G46" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B47" s="16">
-        <v>43854</v>
-      </c>
-      <c r="C47" s="16"/>
+        <v>43843</v>
+      </c>
+      <c r="C47" s="16">
+        <v>43847</v>
+      </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="17">
+        <f>C47-B47</f>
+        <v>4</v>
+      </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
-        <v>59</v>
+      <c r="G47" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1879,61 +1964,275 @@
       <c r="E69" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G47">
+    <sortCondition ref="A4:A47"/>
+    <sortCondition ref="B4:B47"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G5 A7:G47 G6">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A7:G47 G6 A4:G5">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$E4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$E6&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD47">
+    <cfRule type="expression" priority="4">
+      <formula>isempty($E4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="G27" r:id="rId2" display="https://www.thelocal.de/20200128/first-coronavirus-case-confirmed-in-germany-bavarian-health-ministry" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="G29" r:id="rId3" display="https://www.nytimes.com/2020/01/15/world/asia/coronavirus-japan-china.html," xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="G30" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="G31" r:id="rId5" display="http://www.rfi.fr/en/international/20200125-french-health-authorities-confirm-three-cases-new-coronavirus-first-europe" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="G34" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="G35" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="G36" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="G37" r:id="rId9" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="G38" r:id="rId10" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="G39" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="G40" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="G41" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="G42" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="G43" r:id="rId15" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="G44" r:id="rId16" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="G45" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="G46" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="G47" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="G4" r:id="rId20" xr:uid="{34A0EC33-430D-4FA2-B9FB-D1768AD7670C}"/>
-    <hyperlink ref="G5" r:id="rId21" xr:uid="{2C6BAB03-E1BF-4AFA-A9C7-0C9268462E03}"/>
-    <hyperlink ref="G6" r:id="rId22" xr:uid="{C297B8A6-62EC-4310-BD16-3AD9D88D6D91}"/>
-    <hyperlink ref="G7" r:id="rId23" xr:uid="{B7CFF5B1-747B-4D8F-8A4E-27FAD491CA71}"/>
-    <hyperlink ref="G8" r:id="rId24" xr:uid="{21A81E3B-1679-4D41-9BBA-2514BDC8B573}"/>
-    <hyperlink ref="G9" r:id="rId25" xr:uid="{7FA7C1E1-CB57-4336-8AE7-04201C8FB93C}"/>
-    <hyperlink ref="G10" r:id="rId26" xr:uid="{A0D8099E-DE51-439C-A6ED-6CFE3F41EC55}"/>
-    <hyperlink ref="G11" r:id="rId27" xr:uid="{246EC24B-2C42-430B-81A8-E6F0ADF0AB18}"/>
-    <hyperlink ref="G12" r:id="rId28" xr:uid="{F0E6499A-A868-459D-9DC5-BF100F69E320}"/>
-    <hyperlink ref="G13" r:id="rId29" xr:uid="{BF605D6B-62DB-4714-8662-31A4BC36F584}"/>
-    <hyperlink ref="G14" r:id="rId30" xr:uid="{52795501-CE15-4A71-A642-26254691F8D2}"/>
-    <hyperlink ref="G15" r:id="rId31" xr:uid="{A981857D-D908-4138-89D3-1B3F633CDD08}"/>
-    <hyperlink ref="G16" r:id="rId32" xr:uid="{1D8F2035-4100-4256-B27F-8AD2398EC5A1}"/>
-    <hyperlink ref="G17" r:id="rId33" xr:uid="{2B61AEB0-4D83-4D84-ADBD-B68C6F6F00AE}"/>
-    <hyperlink ref="G18" r:id="rId34" xr:uid="{04E44B05-BA8C-45AC-8C4E-630FE884449E}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{F2AD0A6E-4882-40E7-A3EE-1A1C6616A729}"/>
-    <hyperlink ref="G20" r:id="rId36" xr:uid="{12007DD4-8BF2-4986-8C54-C05C9B9EF1FC}"/>
-    <hyperlink ref="G21" r:id="rId37" xr:uid="{24F71A93-EBCD-47DC-81FC-FE1C5F51C55A}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://www.thelocal.de/20200128/first-coronavirus-case-confirmed-in-germany-bavarian-health-ministry" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="G47" r:id="rId3" display="https://www.nytimes.com/2020/01/15/world/asia/coronavirus-japan-china.html," xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="G27" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="G13" r:id="rId5" display="http://www.rfi.fr/en/international/20200125-french-health-authorities-confirm-three-cases-new-coronavirus-first-europe" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://www.sbs.com.au/news/calm-urged-as-china-s-coronavirus-reaches-australia-with-four-confirmed-cases" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="G42" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="G43" r:id="rId10" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="G33" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="G45" r:id="rId16" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="G44" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="G34" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="G28" r:id="rId20" xr:uid="{34A0EC33-430D-4FA2-B9FB-D1768AD7670C}"/>
+    <hyperlink ref="G32" r:id="rId21" xr:uid="{2C6BAB03-E1BF-4AFA-A9C7-0C9268462E03}"/>
+    <hyperlink ref="G29" r:id="rId22" xr:uid="{C297B8A6-62EC-4310-BD16-3AD9D88D6D91}"/>
+    <hyperlink ref="G30" r:id="rId23" xr:uid="{B7CFF5B1-747B-4D8F-8A4E-27FAD491CA71}"/>
+    <hyperlink ref="G31" r:id="rId24" xr:uid="{21A81E3B-1679-4D41-9BBA-2514BDC8B573}"/>
+    <hyperlink ref="G18" r:id="rId25" xr:uid="{7FA7C1E1-CB57-4336-8AE7-04201C8FB93C}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{A0D8099E-DE51-439C-A6ED-6CFE3F41EC55}"/>
+    <hyperlink ref="G20" r:id="rId27" xr:uid="{246EC24B-2C42-430B-81A8-E6F0ADF0AB18}"/>
+    <hyperlink ref="G22" r:id="rId28" xr:uid="{F0E6499A-A868-459D-9DC5-BF100F69E320}"/>
+    <hyperlink ref="G23" r:id="rId29" xr:uid="{BF605D6B-62DB-4714-8662-31A4BC36F584}"/>
+    <hyperlink ref="G19" r:id="rId30" xr:uid="{52795501-CE15-4A71-A642-26254691F8D2}"/>
+    <hyperlink ref="G38" r:id="rId31" xr:uid="{A981857D-D908-4138-89D3-1B3F633CDD08}"/>
+    <hyperlink ref="G41" r:id="rId32" xr:uid="{1D8F2035-4100-4256-B27F-8AD2398EC5A1}"/>
+    <hyperlink ref="G36" r:id="rId33" xr:uid="{2B61AEB0-4D83-4D84-ADBD-B68C6F6F00AE}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{04E44B05-BA8C-45AC-8C4E-630FE884449E}"/>
+    <hyperlink ref="G39" r:id="rId35" xr:uid="{F2AD0A6E-4882-40E7-A3EE-1A1C6616A729}"/>
+    <hyperlink ref="G40" r:id="rId36" xr:uid="{12007DD4-8BF2-4986-8C54-C05C9B9EF1FC}"/>
+    <hyperlink ref="G35" r:id="rId37" xr:uid="{24F71A93-EBCD-47DC-81FC-FE1C5F51C55A}"/>
+    <hyperlink ref="G10" r:id="rId38" xr:uid="{2DF318FB-E3D7-4084-9D87-9C25C48EDAF5}"/>
+    <hyperlink ref="G5" r:id="rId39" xr:uid="{3CB54526-517F-4B92-A8AD-413FB8ADAC04}"/>
   </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="landscape" r:id="rId40"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1E942-D7F6-412F-97E6-975D1C3A2F1C}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="31">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="31">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="31">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="31">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="31">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="31">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="31">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="31">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="31">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="31">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="31">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="31">
+        <v>43843</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
-  <legacyDrawing r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exported_Case_Arrival.xlsx
+++ b/Exported_Case_Arrival.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D6019-F6FE-4298-A9BF-A1E1BEE733EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A639244-0B8F-474A-89BD-8E3C57DD452A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,12 +387,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -544,6 +546,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,12 +561,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -805,7 +807,7 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -818,43 +820,43 @@
     <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="209.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="30"/>
+    <col min="8" max="16384" width="14.42578125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="33" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -929,14 +931,14 @@
       <c r="F7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -953,7 +955,7 @@
       <c r="F8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>42</v>
       </c>
     </row>
@@ -972,7 +974,7 @@
       <c r="F9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="28" t="s">
         <v>63</v>
       </c>
     </row>
@@ -996,14 +998,14 @@
       <c r="F10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
@@ -1026,11 +1028,11 @@
       <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -1045,14 +1047,14 @@
       <c r="F12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -1072,14 +1074,14 @@
       <c r="F13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
@@ -1099,14 +1101,14 @@
       <c r="F14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -1121,7 +1123,7 @@
       <c r="F15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1138,7 +1140,7 @@
       <c r="F16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1155,7 +1157,7 @@
       <c r="F17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1172,7 +1174,7 @@
       <c r="F18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1199,11 +1201,11 @@
       <c r="G19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
@@ -1266,11 +1268,11 @@
       <c r="G22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -1295,11 +1297,11 @@
       <c r="G23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
@@ -1324,11 +1326,11 @@
       <c r="G24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
@@ -1348,14 +1350,14 @@
       <c r="F25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
@@ -1372,14 +1374,14 @@
       <c r="F26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
@@ -1396,14 +1398,14 @@
       <c r="F27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
@@ -1440,14 +1442,14 @@
       <c r="F29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
@@ -1472,11 +1474,11 @@
       <c r="G30" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
@@ -1500,11 +1502,11 @@
       <c r="G31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
@@ -1529,11 +1531,11 @@
       <c r="G32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
@@ -1558,11 +1560,11 @@
       <c r="G33" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
@@ -1587,11 +1589,11 @@
       <c r="G34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
@@ -1611,14 +1613,14 @@
       <c r="F35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
@@ -1633,7 +1635,7 @@
       <c r="F36" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1660,11 +1662,11 @@
       <c r="G37" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
@@ -1689,11 +1691,11 @@
       <c r="G38" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
@@ -1718,11 +1720,11 @@
       <c r="G39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
@@ -1747,11 +1749,11 @@
       <c r="G40" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
@@ -1776,11 +1778,11 @@
       <c r="G41" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
@@ -1805,11 +1807,11 @@
       <c r="G42" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
@@ -1834,11 +1836,11 @@
       <c r="G43" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
@@ -1858,14 +1860,14 @@
       <c r="F44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
@@ -1882,7 +1884,7 @@
       <c r="F45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="28" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1899,7 +1901,7 @@
       <c r="F46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1916,7 +1918,7 @@
       <c r="F47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1941,11 +1943,11 @@
       <c r="G48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
@@ -1968,11 +1970,11 @@
       <c r="G49" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
